--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cybertech Systems and Software Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cybertech Systems and Software Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -675,16 +675,16 @@
         <v>34.28</v>
       </c>
       <c r="G2">
-        <v>1.713125</v>
+        <v>1.71</v>
       </c>
       <c r="H2">
-        <v>1.587142857142857</v>
+        <v>1.59</v>
       </c>
       <c r="I2">
-        <v>2.872105263157895</v>
+        <v>2.87</v>
       </c>
       <c r="J2">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K2">
         <v>0.71</v>
@@ -708,7 +708,7 @@
         <v>2.75</v>
       </c>
       <c r="R2">
-        <v>4.618823529411764</v>
+        <v>4.62</v>
       </c>
       <c r="S2">
         <v>15.49</v>
@@ -723,7 +723,7 @@
         <v>32.22</v>
       </c>
       <c r="W2">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
       <c r="X2">
         <v>3.06</v>
@@ -762,7 +762,7 @@
         <v>16.67</v>
       </c>
       <c r="AJ2">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -785,16 +785,16 @@
         <v>38.7</v>
       </c>
       <c r="G3">
-        <v>1.713125</v>
+        <v>1.71</v>
       </c>
       <c r="H3">
-        <v>1.587142857142857</v>
+        <v>1.59</v>
       </c>
       <c r="I3">
         <v>0.05</v>
       </c>
       <c r="J3">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K3">
         <v>1.34</v>
@@ -815,7 +815,7 @@
         <v>19.03</v>
       </c>
       <c r="Q3">
-        <v>2.238333333333333</v>
+        <v>2.24</v>
       </c>
       <c r="R3">
         <v>1.07</v>
@@ -833,7 +833,7 @@
         <v>36.79</v>
       </c>
       <c r="W3">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
       <c r="X3">
         <v>2.54</v>
@@ -872,7 +872,7 @@
         <v>16.67</v>
       </c>
       <c r="AJ3">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -895,16 +895,16 @@
         <v>44.76</v>
       </c>
       <c r="G4">
-        <v>1.713125</v>
+        <v>1.71</v>
       </c>
       <c r="H4">
-        <v>1.587142857142857</v>
+        <v>1.59</v>
       </c>
       <c r="I4">
         <v>0.12</v>
       </c>
       <c r="J4">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K4">
         <v>2.39</v>
@@ -925,7 +925,7 @@
         <v>20.55</v>
       </c>
       <c r="Q4">
-        <v>2.238333333333333</v>
+        <v>2.24</v>
       </c>
       <c r="R4">
         <v>0.08</v>
@@ -937,13 +937,13 @@
         <v>16.67</v>
       </c>
       <c r="U4">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V4">
         <v>37.31</v>
       </c>
       <c r="W4">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
       <c r="X4">
         <v>9.119999999999999</v>
@@ -955,7 +955,7 @@
         <v>5.14</v>
       </c>
       <c r="AA4">
-        <v>6.5975</v>
+        <v>6.6</v>
       </c>
       <c r="AB4">
         <v>16</v>
@@ -982,7 +982,7 @@
         <v>16.67</v>
       </c>
       <c r="AJ4">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1005,16 +1005,16 @@
         <v>46.9</v>
       </c>
       <c r="G5">
-        <v>1.713125</v>
+        <v>1.71</v>
       </c>
       <c r="H5">
-        <v>1.587142857142857</v>
+        <v>1.59</v>
       </c>
       <c r="I5">
         <v>0.07000000000000001</v>
       </c>
       <c r="J5">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K5">
         <v>1.07</v>
@@ -1047,13 +1047,13 @@
         <v>8.26</v>
       </c>
       <c r="U5">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V5">
         <v>28.3</v>
       </c>
       <c r="W5">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
       <c r="X5">
         <v>8.76</v>
@@ -1065,7 +1065,7 @@
         <v>6.97</v>
       </c>
       <c r="AA5">
-        <v>6.5975</v>
+        <v>6.6</v>
       </c>
       <c r="AB5">
         <v>27.23</v>
@@ -1092,7 +1092,7 @@
         <v>8.26</v>
       </c>
       <c r="AJ5">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1118,13 +1118,13 @@
         <v>2.28</v>
       </c>
       <c r="H6">
-        <v>1.587142857142857</v>
+        <v>1.59</v>
       </c>
       <c r="I6">
         <v>2.3</v>
       </c>
       <c r="J6">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K6">
         <v>1.64</v>
@@ -1157,13 +1157,13 @@
         <v>12.93</v>
       </c>
       <c r="U6">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V6">
         <v>33.18</v>
       </c>
       <c r="W6">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
       <c r="X6">
         <v>6.73</v>
@@ -1175,7 +1175,7 @@
         <v>9.07</v>
       </c>
       <c r="AA6">
-        <v>6.5975</v>
+        <v>6.6</v>
       </c>
       <c r="AB6">
         <v>28.84</v>
@@ -1202,7 +1202,7 @@
         <v>12.93</v>
       </c>
       <c r="AJ6">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1228,13 +1228,13 @@
         <v>2.27</v>
       </c>
       <c r="H7">
-        <v>1.587142857142857</v>
+        <v>1.59</v>
       </c>
       <c r="I7">
         <v>2.27</v>
       </c>
       <c r="J7">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K7">
         <v>1.38</v>
@@ -1267,13 +1267,13 @@
         <v>27.55</v>
       </c>
       <c r="U7">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V7">
         <v>45.69</v>
       </c>
       <c r="W7">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
       <c r="X7">
         <v>6.51</v>
@@ -1285,7 +1285,7 @@
         <v>10.16</v>
       </c>
       <c r="AA7">
-        <v>6.5975</v>
+        <v>6.6</v>
       </c>
       <c r="AB7">
         <v>17.43</v>
@@ -1312,7 +1312,7 @@
         <v>27.55</v>
       </c>
       <c r="AJ7">
-        <v>12.545</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1344,7 +1344,7 @@
         <v>2.41</v>
       </c>
       <c r="J8">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K8">
         <v>1.78</v>
@@ -1377,7 +1377,7 @@
         <v>12.5</v>
       </c>
       <c r="U8">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V8">
         <v>30.22</v>
@@ -1454,7 +1454,7 @@
         <v>2.41</v>
       </c>
       <c r="J9">
-        <v>5.568333333333332</v>
+        <v>5.57</v>
       </c>
       <c r="K9">
         <v>3.79</v>
@@ -1487,7 +1487,7 @@
         <v>10.63</v>
       </c>
       <c r="U9">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V9">
         <v>33.51</v>
@@ -1597,7 +1597,7 @@
         <v>10.63</v>
       </c>
       <c r="U10">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V10">
         <v>41.02</v>
@@ -1707,7 +1707,7 @@
         <v>10.63</v>
       </c>
       <c r="U11">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V11">
         <v>52.03</v>
@@ -1817,7 +1817,7 @@
         <v>15.34</v>
       </c>
       <c r="U12">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V12">
         <v>62.35</v>
@@ -1927,7 +1927,7 @@
         <v>15.34</v>
       </c>
       <c r="U13">
-        <v>1.291</v>
+        <v>1.29</v>
       </c>
       <c r="V13">
         <v>62.17</v>
@@ -2073,7 +2073,7 @@
         <v>1.13</v>
       </c>
       <c r="AG14">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH14">
         <v>12.88</v>
@@ -2183,7 +2183,7 @@
         <v>1.13</v>
       </c>
       <c r="AG15">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH15">
         <v>12.88</v>
@@ -2293,7 +2293,7 @@
         <v>1.13</v>
       </c>
       <c r="AG16">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH16">
         <v>12.88</v>
@@ -2403,7 +2403,7 @@
         <v>1.39</v>
       </c>
       <c r="AG17">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH17">
         <v>12.88</v>
@@ -2504,16 +2504,16 @@
         <v>123.87</v>
       </c>
       <c r="AD18">
-        <v>11.56166666666667</v>
+        <v>11.56</v>
       </c>
       <c r="AE18">
-        <v>3.057222222222222</v>
+        <v>3.06</v>
       </c>
       <c r="AF18">
         <v>1.09</v>
       </c>
       <c r="AG18">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH18">
         <v>12.88</v>
@@ -2578,7 +2578,7 @@
         <v>4.84</v>
       </c>
       <c r="R19">
-        <v>4.618823529411764</v>
+        <v>4.62</v>
       </c>
       <c r="S19">
         <v>39.38</v>
@@ -2614,16 +2614,16 @@
         <v>132.35</v>
       </c>
       <c r="AD19">
-        <v>11.56166666666667</v>
+        <v>11.56</v>
       </c>
       <c r="AE19">
-        <v>3.057222222222222</v>
+        <v>3.06</v>
       </c>
       <c r="AF19">
         <v>1.13</v>
       </c>
       <c r="AG19">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH19">
         <v>12.88</v>
@@ -2733,7 +2733,7 @@
         <v>1.13</v>
       </c>
       <c r="AG20">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH20">
         <v>12.88</v>
@@ -2798,7 +2798,7 @@
         <v>0.7</v>
       </c>
       <c r="R21">
-        <v>4.618823529411764</v>
+        <v>4.62</v>
       </c>
       <c r="S21">
         <v>33.39</v>
@@ -2843,7 +2843,7 @@
         <v>1.13</v>
       </c>
       <c r="AG21">
-        <v>21.15416666666667</v>
+        <v>21.15</v>
       </c>
       <c r="AH21">
         <v>12.88</v>
